--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>568469.705186683</v>
+        <v>609458.8933146201</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12402915.60941508</v>
+        <v>12362975.08664834</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6034514.474368497</v>
+        <v>7656131.450648338</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9740803.738207825</v>
+        <v>8969396.380700592</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>147.2763149334905</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>56.56995359489693</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>3.699269962191933</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906497</v>
+        <v>85.82227042944945</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>97.97014585683078</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>199.7354794673641</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>278.0818333067243</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>227.9187527607135</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>48.3160744117094</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188222</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>135.4572143392361</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>100.6518084685313</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>28.1947492807139</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>232.8191659544499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>78.07176369354643</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,10 +1277,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>37.13080710095014</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.64530091590809</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>336.295416958618</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>249.1524003704187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247739</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734116405</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.26989189552343</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>251.2698407770349</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>259.5412770465438</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>150.5582247486539</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>59.4223484152694</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>65.54923767829287</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.3740962725151</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>299.3022824931949</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>51.06561173382013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>34.98723076369722</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>120.6088074159605</v>
+        <v>93.45832099395179</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.4425172951284</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>254.4097077121127</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>185.283288758996</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>72.89138480951671</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>10.20389322926706</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>310.9299993360268</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>33.24139751941117</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>260.6968861527344</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>97.28002421814141</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>33.21555324159405</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>96.33842426846304</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>79.49505480544778</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>90.15502218119917</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>252.1815824390002</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>52.45726733572502</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>200.0178220292537</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>57.56305512390951</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3319,22 +3319,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>154.1552139341847</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>340.8795921860814</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>20.18624009875692</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>168.6810618905914</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>245.7853873250211</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.85402886665252</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>69.42620590385835</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>11.16818915334128</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>339.9319714775302</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>131.6288405191004</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>121.7909664076555</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>253.0320500504441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>42.34070507092564</v>
+        <v>137.0709134223702</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>17.25588147840214</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>909.7213810879939</v>
+        <v>76.32600311889303</v>
       </c>
       <c r="C2" t="n">
-        <v>540.7588641475822</v>
+        <v>76.32600311889303</v>
       </c>
       <c r="D2" t="n">
-        <v>182.4931655408317</v>
+        <v>76.32600311889303</v>
       </c>
       <c r="E2" t="n">
-        <v>33.72921106255855</v>
+        <v>76.32600311889303</v>
       </c>
       <c r="F2" t="n">
-        <v>33.72921106255855</v>
+        <v>76.32600311889303</v>
       </c>
       <c r="G2" t="n">
-        <v>33.72921106255855</v>
+        <v>76.32600311889303</v>
       </c>
       <c r="H2" t="n">
-        <v>33.72921106255855</v>
+        <v>76.32600311889303</v>
       </c>
       <c r="I2" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J2" t="n">
-        <v>107.8290791267618</v>
+        <v>40.41888584470354</v>
       </c>
       <c r="K2" t="n">
-        <v>269.6240911917569</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>507.2468724099484</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>803.3174389675509</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N2" t="n">
-        <v>1108.792545203136</v>
+        <v>643.3443219779379</v>
       </c>
       <c r="O2" t="n">
-        <v>1383.90876451977</v>
+        <v>813.5133472948972</v>
       </c>
       <c r="P2" t="n">
-        <v>1584.213091808873</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q2" t="n">
-        <v>1686.460553127927</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R2" t="n">
-        <v>1686.460553127927</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S2" t="n">
-        <v>1686.460553127927</v>
+        <v>803.0167550628464</v>
       </c>
       <c r="T2" t="n">
-        <v>1686.460553127927</v>
+        <v>803.0167550628464</v>
       </c>
       <c r="U2" t="n">
-        <v>1686.460553127927</v>
+        <v>560.786504414862</v>
       </c>
       <c r="V2" t="n">
-        <v>1686.460553127927</v>
+        <v>560.786504414862</v>
       </c>
       <c r="W2" t="n">
-        <v>1686.460553127927</v>
+        <v>318.5562537668775</v>
       </c>
       <c r="X2" t="n">
-        <v>1686.460553127927</v>
+        <v>76.32600311889303</v>
       </c>
       <c r="Y2" t="n">
-        <v>1296.321221152116</v>
+        <v>76.32600311889303</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>761.1031710934217</v>
+        <v>105.8737979012693</v>
       </c>
       <c r="C3" t="n">
-        <v>757.3665347679753</v>
+        <v>105.8737979012693</v>
       </c>
       <c r="D3" t="n">
-        <v>608.432125106724</v>
+        <v>105.8737979012693</v>
       </c>
       <c r="E3" t="n">
-        <v>449.1946701012685</v>
+        <v>105.8737979012693</v>
       </c>
       <c r="F3" t="n">
-        <v>302.6601121281534</v>
+        <v>105.8737979012693</v>
       </c>
       <c r="G3" t="n">
-        <v>165.5587479084195</v>
+        <v>105.8737979012693</v>
       </c>
       <c r="H3" t="n">
-        <v>67.92677704067708</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I3" t="n">
-        <v>33.72921106255855</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J3" t="n">
-        <v>183.8748628766941</v>
+        <v>85.30141548166289</v>
       </c>
       <c r="K3" t="n">
-        <v>305.2979551469729</v>
+        <v>152.9092351450197</v>
       </c>
       <c r="L3" t="n">
-        <v>514.8888283998035</v>
+        <v>290.1388331607135</v>
       </c>
       <c r="M3" t="n">
-        <v>778.8283598952908</v>
+        <v>469.6361695153181</v>
       </c>
       <c r="N3" t="n">
-        <v>1064.162230328624</v>
+        <v>668.2929111679825</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.967182080082</v>
+        <v>827.8052238367429</v>
       </c>
       <c r="P3" t="n">
-        <v>1475.296143033791</v>
+        <v>936.4948513640416</v>
       </c>
       <c r="Q3" t="n">
-        <v>1686.460553127927</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R3" t="n">
-        <v>1686.460553127927</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S3" t="n">
-        <v>1686.460553127927</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T3" t="n">
-        <v>1686.460553127927</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="U3" t="n">
-        <v>1458.344136258899</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="V3" t="n">
-        <v>1223.192028027156</v>
+        <v>724.0796843342757</v>
       </c>
       <c r="W3" t="n">
-        <v>968.9546712989545</v>
+        <v>481.8494336862913</v>
       </c>
       <c r="X3" t="n">
-        <v>761.1031710934217</v>
+        <v>481.8494336862913</v>
       </c>
       <c r="Y3" t="n">
-        <v>761.1031710934217</v>
+        <v>274.0891349213373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.72921106255855</v>
+        <v>283.9320604828042</v>
       </c>
       <c r="C4" t="n">
-        <v>33.72921106255855</v>
+        <v>283.9320604828042</v>
       </c>
       <c r="D4" t="n">
-        <v>33.72921106255855</v>
+        <v>184.9723171930762</v>
       </c>
       <c r="E4" t="n">
-        <v>33.72921106255855</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="F4" t="n">
-        <v>33.72921106255855</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="G4" t="n">
-        <v>33.72921106255855</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="H4" t="n">
-        <v>33.72921106255855</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="I4" t="n">
-        <v>33.72921106255855</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="J4" t="n">
-        <v>35.96388306992289</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K4" t="n">
-        <v>169.472972355726</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>395.84507567387</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>644.9118420064103</v>
+        <v>450.4476363223401</v>
       </c>
       <c r="N4" t="n">
-        <v>893.4909737490111</v>
+        <v>656.2710011584443</v>
       </c>
       <c r="O4" t="n">
-        <v>1107.077740097166</v>
+        <v>830.365896547043</v>
       </c>
       <c r="P4" t="n">
-        <v>1266.31743473321</v>
+        <v>955.8134731456586</v>
       </c>
       <c r="Q4" t="n">
-        <v>1293.13166510086</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R4" t="n">
-        <v>1293.13166510086</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S4" t="n">
-        <v>1091.378655537866</v>
+        <v>751.7915078184237</v>
       </c>
       <c r="T4" t="n">
-        <v>866.9674963133041</v>
+        <v>526.1623111307887</v>
       </c>
       <c r="U4" t="n">
-        <v>577.8308693054061</v>
+        <v>526.1623111307887</v>
       </c>
       <c r="V4" t="n">
-        <v>323.1463810995191</v>
+        <v>526.1623111307887</v>
       </c>
       <c r="W4" t="n">
-        <v>33.72921106255855</v>
+        <v>283.9320604828042</v>
       </c>
       <c r="X4" t="n">
-        <v>33.72921106255855</v>
+        <v>283.9320604828042</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.72921106255855</v>
+        <v>283.9320604828042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829028</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="C5" t="n">
-        <v>690.4032258886166</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="D5" t="n">
-        <v>332.1375272818661</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="E5" t="n">
-        <v>332.1375272818661</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="F5" t="n">
-        <v>51.24678656800312</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130042</v>
+        <v>670.32375641013</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868962</v>
+        <v>670.32375641013</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.96558289315</v>
+        <v>403.9460998429521</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>375.6732389460743</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>375.6732389460743</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>375.6732389460743</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>216.4357839406188</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>69.90122596750373</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380233</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>909.246581869495</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400156</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>375.6732389460743</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>375.6732389460743</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>375.6732389460743</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.9138669598626</v>
+        <v>567.6852842953166</v>
       </c>
       <c r="C7" t="n">
-        <v>461.9138669598626</v>
+        <v>567.6852842953166</v>
       </c>
       <c r="D7" t="n">
-        <v>325.0883979303312</v>
+        <v>417.5686448829808</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>269.6555513005877</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>122.7656038026774</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>122.7656038026774</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.34446183165</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X7" t="n">
-        <v>864.3549109336325</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.5623317901023</v>
+        <v>567.6852842953166</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>891.5908846145765</v>
+        <v>432.425644570946</v>
       </c>
       <c r="C8" t="n">
-        <v>891.5908846145765</v>
+        <v>432.425644570946</v>
       </c>
       <c r="D8" t="n">
-        <v>533.3251860078259</v>
+        <v>432.425644570946</v>
       </c>
       <c r="E8" t="n">
-        <v>533.3251860078259</v>
+        <v>432.425644570946</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>166.047988003768</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>432.425644570946</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>432.425644570946</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.227517577121</v>
+        <v>432.425644570946</v>
       </c>
       <c r="X8" t="n">
-        <v>1126.761759316041</v>
+        <v>432.425644570946</v>
       </c>
       <c r="Y8" t="n">
-        <v>891.5908846145765</v>
+        <v>432.425644570946</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>200.44163965745</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145203</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K9" t="n">
-        <v>614.543024838023</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>622.8943334057196</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>368.656976677518</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>368.656976677518</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>368.656976677518</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>603.8705643698324</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C10" t="n">
-        <v>603.8705643698324</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D10" t="n">
-        <v>453.7539249574967</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R10" t="n">
-        <v>1598.940254315962</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S10" t="n">
-        <v>1598.940254315962</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T10" t="n">
-        <v>1375.961773510697</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U10" t="n">
-        <v>1375.961773510697</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="V10" t="n">
-        <v>1121.27728530481</v>
+        <v>308.3243389909743</v>
       </c>
       <c r="W10" t="n">
-        <v>831.8601152678498</v>
+        <v>308.3243389909743</v>
       </c>
       <c r="X10" t="n">
-        <v>603.8705643698324</v>
+        <v>80.33478809295696</v>
       </c>
       <c r="Y10" t="n">
-        <v>603.8705643698324</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410103</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W11" t="n">
-        <v>2630.721789066532</v>
+        <v>1638.003039958523</v>
       </c>
       <c r="X11" t="n">
-        <v>2257.256030805452</v>
+        <v>1264.537281697444</v>
       </c>
       <c r="Y11" t="n">
-        <v>2005.586939522201</v>
+        <v>1264.537281697444</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811085</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999815</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387302</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332748</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601598</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992585</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.91239341064</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886743</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533343</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>423.5412774992677</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C13" t="n">
-        <v>423.5412774992677</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D13" t="n">
-        <v>360.6423967967188</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E13" t="n">
-        <v>212.7293032143257</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143257</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791191</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764917</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760409</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935979</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783663</v>
+        <v>963.0309714522911</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577776</v>
+        <v>708.3464832464042</v>
       </c>
       <c r="W13" t="n">
-        <v>872.3234075408152</v>
+        <v>418.9293132094435</v>
       </c>
       <c r="X13" t="n">
-        <v>644.3338566427979</v>
+        <v>418.9293132094435</v>
       </c>
       <c r="Y13" t="n">
-        <v>423.5412774992677</v>
+        <v>198.1367340659135</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>729.1144429513342</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136266</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W14" t="n">
-        <v>3215.315153136266</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X14" t="n">
-        <v>2841.849394875186</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y14" t="n">
-        <v>2689.770379977556</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>423.5412774992673</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C16" t="n">
-        <v>363.5187033424295</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D16" t="n">
-        <v>213.4020639300938</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E16" t="n">
-        <v>213.4020639300938</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783662</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V16" t="n">
-        <v>1161.740577577775</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W16" t="n">
-        <v>872.3234075408147</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X16" t="n">
-        <v>644.3338566427974</v>
+        <v>514.036292340028</v>
       </c>
       <c r="Y16" t="n">
-        <v>423.5412774992673</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2303.170539913434</v>
+        <v>1980.946859214235</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>3009.337405520489</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>3009.337405520489</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X17" t="n">
-        <v>2635.871647259409</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y17" t="n">
-        <v>2635.871647259409</v>
+        <v>2367.546699278356</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5582,46 +5582,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>752.7622949738579</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>433.7094726336153</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>1672.610059882606</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W19" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X19" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y19" t="n">
-        <v>934.4107598040977</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1590.514489367197</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C20" t="n">
-        <v>1221.551972426786</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218339</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>3093.488074938325</v>
+        <v>3120.91280869793</v>
       </c>
       <c r="W20" t="n">
-        <v>2740.71941966821</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="X20" t="n">
-        <v>2367.25366140713</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y20" t="n">
-        <v>1977.114329431319</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5843,16 +5843,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5955,7 +5955,7 @@
         <v>452.6479724696235</v>
       </c>
       <c r="Y22" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1032.061124352532</v>
+        <v>1848.950422814787</v>
       </c>
       <c r="C23" t="n">
-        <v>775.0816216130238</v>
+        <v>1479.987905874375</v>
       </c>
       <c r="D23" t="n">
-        <v>775.0816216130238</v>
+        <v>1121.722207267625</v>
       </c>
       <c r="E23" t="n">
-        <v>775.0816216130238</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923659</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653545</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392465</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y23" t="n">
-        <v>1418.660964416653</v>
+        <v>2235.550262878909</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218343</v>
@@ -6177,22 +6177,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V25" t="n">
-        <v>1161.740577577775</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W25" t="n">
-        <v>872.3234075408147</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X25" t="n">
-        <v>862.0164446829692</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1628.17820394412</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C26" t="n">
-        <v>1259.215687003708</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="D26" t="n">
-        <v>900.9499883969577</v>
+        <v>1546.221676928586</v>
       </c>
       <c r="E26" t="n">
-        <v>515.1617357987134</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>515.1617357987134</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>100.0892856437098</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6238,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269321</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.778044008242</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y26" t="n">
-        <v>2014.778044008242</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6375,16 +6375,16 @@
         <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
         <v>315.6219318279954</v>
@@ -6411,19 +6411,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.191681214136</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.191681214136</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.774511177176</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X28" t="n">
         <v>1250.51186045178</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2047.583838282732</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.62132134232</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3228.294281944056</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3022.316534328279</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2768.786057602115</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2437.723170258544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2437.723170258544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2437.723170258544</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>2047.583838282732</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>463.6594280995014</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>294.7232451715945</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>294.7232451715945</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>146.8101515892014</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6651,22 +6651,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1836.228869117585</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.507193008249</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W31" t="n">
-        <v>1094.090022971289</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X31" t="n">
-        <v>866.1004720732712</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y31" t="n">
-        <v>645.3078929297411</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1221.551972426786</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C32" t="n">
-        <v>1221.551972426786</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2371.756902727799</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>1998.291144466719</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y32" t="n">
-        <v>1608.151812490907</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>848.0708164780106</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D34" t="n">
         <v>529.0179941377679</v>
@@ -6846,16 +6846,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6888,22 +6888,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1725.256344018539</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>1436.153477144183</v>
       </c>
       <c r="V34" t="n">
-        <v>1358.280565658501</v>
+        <v>1436.153477144183</v>
       </c>
       <c r="W34" t="n">
-        <v>1068.863395621541</v>
+        <v>1146.736307107222</v>
       </c>
       <c r="X34" t="n">
-        <v>1068.863395621541</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="Y34" t="n">
-        <v>848.0708164780106</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1930.094988518961</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C35" t="n">
-        <v>1561.13247157855</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D35" t="n">
-        <v>1202.866772971799</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>817.078520373555</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6958,31 +6958,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>3059.602815829009</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2706.834160558895</v>
+        <v>2080.421221060772</v>
       </c>
       <c r="X35" t="n">
-        <v>2706.834160558895</v>
+        <v>1706.955462799692</v>
       </c>
       <c r="Y35" t="n">
-        <v>2316.694828583083</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>423.5412774992673</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C37" t="n">
-        <v>254.6050945713604</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>254.6050945713604</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W37" t="n">
-        <v>872.3234075408147</v>
+        <v>1088.772649278361</v>
       </c>
       <c r="X37" t="n">
-        <v>644.3338566427974</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="Y37" t="n">
-        <v>423.5412774992673</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1480.516858765519</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C38" t="n">
-        <v>1111.554341825107</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2630.721789066532</v>
+        <v>2421.86118400969</v>
       </c>
       <c r="X38" t="n">
-        <v>2257.256030805452</v>
+        <v>2048.39542574861</v>
       </c>
       <c r="Y38" t="n">
-        <v>1867.11669882964</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7259,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>691.6489789975187</v>
+        <v>749.2621142610717</v>
       </c>
       <c r="C40" t="n">
-        <v>522.7127960696118</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>372.5961566572761</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>224.683063074883</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>77.79311557697261</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>1094.090022971289</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X40" t="n">
-        <v>1094.090022971289</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="Y40" t="n">
-        <v>873.2974438277585</v>
+        <v>749.2621142610717</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1892.184635123826</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C41" t="n">
-        <v>1523.222118183415</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>1164.956419576664</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>779.1681669784198</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V41" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W41" t="n">
-        <v>2609.016021139987</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X41" t="n">
-        <v>2235.550262878907</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y41" t="n">
-        <v>2235.550262878907</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>486.5398815319805</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5398815319805</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D43" t="n">
-        <v>336.4232421196448</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1480.020734571437</v>
       </c>
       <c r="V43" t="n">
-        <v>1224.739181610489</v>
+        <v>1225.33624636555</v>
       </c>
       <c r="W43" t="n">
-        <v>935.322011573528</v>
+        <v>935.919076328589</v>
       </c>
       <c r="X43" t="n">
-        <v>707.3324606755107</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y43" t="n">
-        <v>486.5398815319805</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1363.124011696101</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C44" t="n">
-        <v>1363.124011696101</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="D44" t="n">
         <v>1320.35562273557</v>
@@ -7645,16 +7645,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7672,28 +7672,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V44" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W44" t="n">
-        <v>2513.328941997114</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X44" t="n">
-        <v>2139.863183736034</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y44" t="n">
-        <v>1749.723851760223</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.5121164321834</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5121164321834</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7836,22 +7836,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159743</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>73.01783107116334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.3598584166012</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>118.0172116724295</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95314511566571</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566558</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>234.6540551387713</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885167</v>
+        <v>61.92608729899344</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>11.34683808079603</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>109.4330205759084</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>129.9231525369644</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>169.0092290261238</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>14.08454764719401</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>193.6625353078282</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>11.88703501941501</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22710,22 +22710,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>50.64532716138157</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7120449039373682</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>46.71505019508641</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>128.7942124349871</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>121.3222159566995</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22877,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>87.70664517471405</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>13.15825867897627</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>51.7303508673255</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23026,19 +23026,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>384.6394253649961</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>153.4187727016037</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,25 +23102,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>94.63673529476931</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23165,10 +23165,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,25 +23184,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>64.4267653186235</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>159.9393524361867</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>12.94555175879503</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>137.0855382856349</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>86.34558112268893</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983806</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004729</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>34.9573133441657</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>147.3347686951677</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>235.6797139073996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>107.8244726833584</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.1604177107443</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.35974539096549</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>65.97060927781263</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>217.1504125601308</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>207.1434510541744</v>
+        <v>234.2939374761831</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696645</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.14213605696639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>110.8631840588949</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>196.6470813132657</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24417,10 +24417,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>215.5057621597701</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>71.00037073623497</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>261.3663668679093</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -24651,22 +24651,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>25.51495205287853</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>128.4296311708957</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>321.4674883790889</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>12.84933751971279</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>65.92599321748347</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,13 +24891,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>129.39392709497</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>113.0913093320074</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>296.783701381688</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>19.53112724691547</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>194.5745881999185</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>173.5970445359502</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>8.361376531331643</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>126.2477225478122</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>117.8419364459996</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>108.8976542956618</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>346.3869398507605</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.82061519476949</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>154.857619105687</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>42.80187018595035</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>233.6440512519072</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.64299623891367</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>33.17978815516878</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>312.3423365497573</v>
+        <v>217.6121281983128</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>131.3595915398102</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>640974.9928054303</v>
+        <v>510934.808112277</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>793473.1616268005</v>
+        <v>529956.4781383714</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>793473.1616268004</v>
+        <v>529956.4781383713</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876251.9859909836</v>
+        <v>793473.1616268004</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876251.9859909837</v>
+        <v>793473.1616268003</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>876251.9859909833</v>
+        <v>876251.9859909836</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876251.9859909836</v>
+        <v>876251.9859909834</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>876251.9859909833</v>
+        <v>876251.9859909836</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876251.9859909836</v>
+        <v>876251.9859909837</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>876251.9859909837</v>
+        <v>876251.9859909834</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>876251.9859909836</v>
+        <v>876251.9859909834</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>876251.9859909834</v>
+        <v>876251.9859909836</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>234651.8339453228</v>
+        <v>186902.5922223889</v>
       </c>
       <c r="C2" t="n">
+        <v>193768.2521372568</v>
+      </c>
+      <c r="D2" t="n">
+        <v>193768.2521372568</v>
+      </c>
+      <c r="E2" t="n">
         <v>290673.0489695932</v>
       </c>
-      <c r="D2" t="n">
-        <v>290673.0489695932</v>
-      </c>
-      <c r="E2" t="n">
-        <v>323947.2440223746</v>
-      </c>
       <c r="F2" t="n">
-        <v>323947.2440223745</v>
+        <v>290673.0489695933</v>
       </c>
       <c r="G2" t="n">
         <v>323947.2440223745</v>
       </c>
       <c r="H2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="I2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="J2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="L2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="N2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="O2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223747</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>863984.3294200042</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>238369.8891383886</v>
+        <v>26462.5055339522</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171911</v>
+        <v>369622.2714301429</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>173363.8810341909</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.920821771112969e-10</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>110313.0712406508</v>
+        <v>62744.31078353569</v>
       </c>
       <c r="K3" t="n">
-        <v>56355.79215856575</v>
+        <v>6152.621870944921</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>93917.74874676271</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45920.21121431088</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11471.3714474063</v>
+        <v>9456.85249880921</v>
       </c>
       <c r="C4" t="n">
-        <v>13767.3191301128</v>
+        <v>10070.37597634434</v>
       </c>
       <c r="D4" t="n">
-        <v>13767.3191301128</v>
+        <v>10070.37597634434</v>
       </c>
       <c r="E4" t="n">
-        <v>7330.627242042224</v>
+        <v>13767.31913011279</v>
       </c>
       <c r="F4" t="n">
-        <v>7330.627242042245</v>
+        <v>13767.31913011279</v>
       </c>
       <c r="G4" t="n">
         <v>7330.627242042245</v>
       </c>
       <c r="H4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042256</v>
       </c>
       <c r="I4" t="n">
         <v>7330.627242042245</v>
@@ -26456,7 +26456,7 @@
         <v>7330.627242042245</v>
       </c>
       <c r="O4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042234</v>
       </c>
       <c r="P4" t="n">
         <v>7330.627242042245</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75611.38525919239</v>
+        <v>61145.70223437329</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26496,22 +26496,22 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-724591.1999044491</v>
+        <v>-537015.3135617413</v>
       </c>
       <c r="C6" t="n">
-        <v>-59629.39446064456</v>
+        <v>93154.79590401889</v>
       </c>
       <c r="D6" t="n">
-        <v>178740.4946777441</v>
+        <v>119617.3014379711</v>
       </c>
       <c r="E6" t="n">
-        <v>56761.10710368699</v>
+        <v>-152549.4603026964</v>
       </c>
       <c r="F6" t="n">
-        <v>238834.0869208783</v>
+        <v>217072.8111274469</v>
       </c>
       <c r="G6" t="n">
-        <v>238834.0869208779</v>
+        <v>68598.77625494197</v>
       </c>
       <c r="H6" t="n">
-        <v>238834.0869208782</v>
+        <v>241962.657289133</v>
       </c>
       <c r="I6" t="n">
-        <v>238834.0869208776</v>
+        <v>241962.6572891328</v>
       </c>
       <c r="J6" t="n">
-        <v>128521.015680227</v>
+        <v>179218.3465055971</v>
       </c>
       <c r="K6" t="n">
-        <v>182478.2947623121</v>
+        <v>235810.0354181879</v>
       </c>
       <c r="L6" t="n">
-        <v>238834.0869208779</v>
+        <v>241962.6572891328</v>
       </c>
       <c r="M6" t="n">
-        <v>191281.8211274629</v>
+        <v>148044.9085423703</v>
       </c>
       <c r="N6" t="n">
-        <v>238834.0869208779</v>
+        <v>241962.6572891329</v>
       </c>
       <c r="O6" t="n">
-        <v>238834.0869208779</v>
+        <v>196042.4460748222</v>
       </c>
       <c r="P6" t="n">
-        <v>238834.0869208779</v>
+        <v>241962.6572891331</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.98095649761</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
+        <v>614.0550137694784</v>
+      </c>
+      <c r="D3" t="n">
+        <v>614.0550137694784</v>
+      </c>
+      <c r="E3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="D3" t="n">
-        <v>934.0648921175392</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1089.776700593299</v>
-      </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.6151382819818</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.98095649761</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>184.0839356199293</v>
+        <v>20.57891343141375</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757595</v>
+        <v>320.009878348061</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.6151382819818</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>218.9696938180571</v>
+        <v>23.9059318600016</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>376.8709520985325</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>190.8166233022539</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>239.8079481415041</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23.90593186000171</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>376.8709520985325</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>190.816623302254</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="J4" t="n">
-        <v>421.6151382819815</v>
-      </c>
-      <c r="K4" t="n">
-        <v>218.9696938180572</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>190.8166233022541</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>421.6151382819818</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>218.9696938180571</v>
+        <v>23.9059318600016</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>376.8709520985325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090892</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625586</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066896</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611372</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014939</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682853</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658685</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485897</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775957</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330906</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325347</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282128</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494789</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674105</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743149</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307773</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859908</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261558</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605112</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911974</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240734</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257156</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433297</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.919299602891</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969223</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993428</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651428</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351907</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777204</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855594</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711386</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600314</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932506</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840045</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351508</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519963</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567078</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965189</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3810118616816</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003813</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623196</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574997</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095027</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099062</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746416</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781692</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806955</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752261</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138798</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233477</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837927</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970252</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987488</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238318</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898503</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098821</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071222</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112299</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000331</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161566</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315067</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410126</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692776</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>277.895171026903</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223262</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586411</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597329</v>
+        <v>66.78462588923487</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517968</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>211.707952780637</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691791</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407401</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812711</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289995</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>213.2973839334707</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883167</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452557</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203475</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550912</v>
+        <v>146.8505817925169</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632331</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324797</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000443</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944473</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065832</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.933366006583</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554007</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923324</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M11" t="n">
-        <v>538.921115830227</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129117</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882195</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193721</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037197</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222489</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597719</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013294</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004594</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525808</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306628</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443197</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226399</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789371</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
